--- a/NCM+NCACY25_0.5_4.xlsx_fitting_results.xlsx
+++ b/NCM+NCACY25_0.5_4.xlsx_fitting_results.xlsx
@@ -492,31 +492,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01196530222789766</v>
+        <v>0.01270056454479081</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003650836733573661</v>
+        <v>0.00290015213435594</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2967744846823748</v>
+        <v>0.2574577796998136</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8951155229038309</v>
+        <v>0.9884912106776941</v>
       </c>
       <c r="F2" t="n">
         <v>0.0005000000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>9.620885910151681</v>
+        <v>9.70107601540546</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6109405186331258</v>
+        <v>0.6216347786502116</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002685846033939055</v>
+        <v>0.002689799782942366</v>
       </c>
       <c r="J2" t="n">
-        <v>1.98045677171055e-07</v>
+        <v>1.194336796117303e-07</v>
       </c>
     </row>
     <row r="3">
@@ -526,31 +526,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01292119524523274</v>
+        <v>0.01383052337609481</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003691806870824126</v>
+        <v>0.003689368670844361</v>
       </c>
       <c r="D3" t="n">
-        <v>5.225073449163374</v>
+        <v>5.377596200014514</v>
       </c>
       <c r="E3" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003279786584039733</v>
+        <v>0.00236598085385149</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7279285878083306</v>
+        <v>0.7066691880824908</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8285172749075163</v>
+        <v>0.9469417672859646</v>
       </c>
       <c r="I3" t="n">
-        <v>0.003669177542136481</v>
+        <v>0.003668520853296245</v>
       </c>
       <c r="J3" t="n">
-        <v>3.173545338465681e-07</v>
+        <v>1.43553914474529e-07</v>
       </c>
     </row>
     <row r="4">
@@ -560,31 +560,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01307407164424329</v>
+        <v>0.01390181022658455</v>
       </c>
       <c r="C4" t="n">
-        <v>0.006714149555307004</v>
+        <v>0.006668344839314846</v>
       </c>
       <c r="D4" t="n">
-        <v>5.728325740698986</v>
+        <v>5.86133602057395</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999999999998489</v>
+        <v>0.9999999999997099</v>
       </c>
       <c r="F4" t="n">
-        <v>0.004056774648256799</v>
+        <v>0.003272968910853885</v>
       </c>
       <c r="G4" t="n">
-        <v>1.56341962369899</v>
+        <v>1.778237656672064</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7227593281102997</v>
+        <v>0.7935270096737094</v>
       </c>
       <c r="I4" t="n">
-        <v>0.003967926441098712</v>
+        <v>0.00396518684576587</v>
       </c>
       <c r="J4" t="n">
-        <v>3.197627561053773e-07</v>
+        <v>1.63124573490324e-07</v>
       </c>
     </row>
     <row r="5">
@@ -594,31 +594,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01320597315511947</v>
+        <v>0.01374578691006414</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01081965372145889</v>
+        <v>0.01043923269387384</v>
       </c>
       <c r="D5" t="n">
-        <v>5.864389144561104</v>
+        <v>6.005040799910823</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9666311294168257</v>
+        <v>0.9792892958579477</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004141670174763412</v>
+        <v>0.004033494965288749</v>
       </c>
       <c r="G5" t="n">
-        <v>1.930766740836007</v>
+        <v>3.417867198998374</v>
       </c>
       <c r="H5" t="n">
-        <v>0.691115179977713</v>
+        <v>0.6686141441139938</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00426669557244443</v>
+        <v>0.004281318109465608</v>
       </c>
       <c r="J5" t="n">
-        <v>3.15959093463719e-07</v>
+        <v>1.981463068105111e-07</v>
       </c>
     </row>
     <row r="6">
@@ -628,31 +628,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01333267004089222</v>
+        <v>0.01391590979620721</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0154179318230696</v>
+        <v>0.01502938554375747</v>
       </c>
       <c r="D6" t="n">
-        <v>5.774176074427466</v>
+        <v>5.882885443635777</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9599061787493176</v>
+        <v>0.9691745420771456</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004392977261645106</v>
+        <v>0.004277625147540816</v>
       </c>
       <c r="G6" t="n">
-        <v>2.36795542087501</v>
+        <v>4.342384597563934</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6579283823158679</v>
+        <v>0.6324231986983889</v>
       </c>
       <c r="I6" t="n">
-        <v>0.004647093494767609</v>
+        <v>0.004674774759407889</v>
       </c>
       <c r="J6" t="n">
-        <v>3.153274903583013e-07</v>
+        <v>1.838837788229625e-07</v>
       </c>
     </row>
     <row r="7">
@@ -662,31 +662,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01358207243285652</v>
+        <v>0.01388366182734344</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02120998225423484</v>
+        <v>0.02082493660332098</v>
       </c>
       <c r="D7" t="n">
-        <v>5.780879230596767</v>
+        <v>5.865792396025457</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9399295296425593</v>
+        <v>0.9468567174563333</v>
       </c>
       <c r="F7" t="n">
-        <v>0.004197691714834514</v>
+        <v>0.004383798637102503</v>
       </c>
       <c r="G7" t="n">
-        <v>2.022008852472466</v>
+        <v>4.257162814402161</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6770628225257465</v>
+        <v>0.6059227894648725</v>
       </c>
       <c r="I7" t="n">
-        <v>0.005016139414478416</v>
+        <v>0.005063183870889763</v>
       </c>
       <c r="J7" t="n">
-        <v>3.131162715628611e-07</v>
+        <v>2.118609134625657e-07</v>
       </c>
     </row>
     <row r="8">
@@ -696,31 +696,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01366846721842031</v>
+        <v>0.01406664971278125</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02725063026569941</v>
+        <v>0.0269110293396187</v>
       </c>
       <c r="D8" t="n">
-        <v>5.774057793020605</v>
+        <v>5.836719931920346</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9342831604947245</v>
+        <v>0.9392564755250549</v>
       </c>
       <c r="F8" t="n">
-        <v>0.004488710366300745</v>
+        <v>0.004539858387427976</v>
       </c>
       <c r="G8" t="n">
-        <v>2.346423713243141</v>
+        <v>4.616591671623942</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6466025352548573</v>
+        <v>0.5905929702108265</v>
       </c>
       <c r="I8" t="n">
-        <v>0.005398329654795682</v>
+        <v>0.005457354647054178</v>
       </c>
       <c r="J8" t="n">
-        <v>3.136574262252595e-07</v>
+        <v>2.107168662450525e-07</v>
       </c>
     </row>
     <row r="9">
@@ -730,31 +730,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01404772507138657</v>
+        <v>0.01352319971038728</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03467157466997771</v>
+        <v>0.03433541665814309</v>
       </c>
       <c r="D9" t="n">
-        <v>5.851240295989924</v>
+        <v>5.902545015302716</v>
       </c>
       <c r="E9" t="n">
-        <v>0.915503540580022</v>
+        <v>0.9196460926999213</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004058659514906083</v>
+        <v>0.00500646786231693</v>
       </c>
       <c r="G9" t="n">
-        <v>1.54700243685292</v>
+        <v>3.146158283511223</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7030135127390361</v>
+        <v>0.5707437680484003</v>
       </c>
       <c r="I9" t="n">
-        <v>0.005628920303291478</v>
+        <v>0.005689782956393109</v>
       </c>
       <c r="J9" t="n">
-        <v>3.14269781458569e-07</v>
+        <v>2.937913772869009e-07</v>
       </c>
     </row>
     <row r="10">
@@ -764,31 +764,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0141111729726715</v>
+        <v>0.01366989797100906</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0419588608265908</v>
+        <v>0.04167080189490627</v>
       </c>
       <c r="D10" t="n">
-        <v>5.88793647954284</v>
+        <v>5.926271301066818</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9131585609264131</v>
+        <v>0.9161227556687457</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004443071151422372</v>
+        <v>0.005258717397286748</v>
       </c>
       <c r="G10" t="n">
-        <v>1.857776473353195</v>
+        <v>3.325468772731183</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6643900467960986</v>
+        <v>0.5561540423769057</v>
       </c>
       <c r="I10" t="n">
-        <v>0.00593486005194064</v>
+        <v>0.00600304642638561</v>
       </c>
       <c r="J10" t="n">
-        <v>3.113444941441396e-07</v>
+        <v>2.904975429506259e-07</v>
       </c>
     </row>
     <row r="11">
@@ -798,31 +798,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01424679201238268</v>
+        <v>0.01378526076257631</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04736332455219849</v>
+        <v>0.04714311517830124</v>
       </c>
       <c r="D11" t="n">
-        <v>5.846141863741633</v>
+        <v>5.872971244088618</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9087221251380053</v>
+        <v>0.9108329996036354</v>
       </c>
       <c r="F11" t="n">
-        <v>0.004389446187279669</v>
+        <v>0.005134210827847439</v>
       </c>
       <c r="G11" t="n">
-        <v>1.716564458125409</v>
+        <v>2.763003702794207</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6692305637505355</v>
+        <v>0.5747466815131679</v>
       </c>
       <c r="I11" t="n">
-        <v>0.006434898332189545</v>
+        <v>0.006490929443443955</v>
       </c>
       <c r="J11" t="n">
-        <v>3.168923959756683e-07</v>
+        <v>3.036230359347648e-07</v>
       </c>
     </row>
     <row r="12">
@@ -832,31 +832,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01449393672995527</v>
+        <v>0.01439307087926756</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05683864890916705</v>
+        <v>0.05659471939516872</v>
       </c>
       <c r="D12" t="n">
-        <v>5.818198081326635</v>
+        <v>5.844721799454685</v>
       </c>
       <c r="E12" t="n">
-        <v>0.915659927697603</v>
+        <v>0.9176623600505749</v>
       </c>
       <c r="F12" t="n">
-        <v>0.004829465494320616</v>
+        <v>0.005263614369630658</v>
       </c>
       <c r="G12" t="n">
-        <v>2.10973353737454</v>
+        <v>3.537858976893633</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6429027530155915</v>
+        <v>0.5683785027239885</v>
       </c>
       <c r="I12" t="n">
-        <v>0.006854769625902037</v>
+        <v>0.006934143456194699</v>
       </c>
       <c r="J12" t="n">
-        <v>3.125887052621532e-07</v>
+        <v>2.60651510985002e-07</v>
       </c>
     </row>
     <row r="13">
@@ -866,31 +866,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01469574627732592</v>
+        <v>0.01432644402270402</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06596398609791784</v>
+        <v>0.06574093872893358</v>
       </c>
       <c r="D13" t="n">
-        <v>5.85698336552099</v>
+        <v>5.878650926810971</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9070741326625537</v>
+        <v>0.908742664994504</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004759412176258215</v>
+        <v>0.005410408920647612</v>
       </c>
       <c r="G13" t="n">
-        <v>1.576575310281459</v>
+        <v>2.587040435268103</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6713358903599362</v>
+        <v>0.5802086529041522</v>
       </c>
       <c r="I13" t="n">
-        <v>0.006948189452493288</v>
+        <v>0.007009771202700655</v>
       </c>
       <c r="J13" t="n">
-        <v>3.076586475382339e-07</v>
+        <v>2.843801094454783e-07</v>
       </c>
     </row>
     <row r="14">
@@ -900,31 +900,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01508931675131003</v>
+        <v>0.01496223958194169</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07449489777241508</v>
+        <v>0.0743460268246347</v>
       </c>
       <c r="D14" t="n">
-        <v>5.897188757090065</v>
+        <v>5.910355444990226</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9010237362842755</v>
+        <v>0.9021938033767593</v>
       </c>
       <c r="F14" t="n">
-        <v>0.004348682102954958</v>
+        <v>0.004644335609922742</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9843651271993812</v>
+        <v>1.530416118014654</v>
       </c>
       <c r="H14" t="n">
-        <v>0.7386587720911711</v>
+        <v>0.6713853734265725</v>
       </c>
       <c r="I14" t="n">
-        <v>0.007539103233064293</v>
+        <v>0.007567272144681627</v>
       </c>
       <c r="J14" t="n">
-        <v>3.079702311406124e-07</v>
+        <v>2.745197309198982e-07</v>
       </c>
     </row>
     <row r="15">
@@ -934,31 +934,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01458195098394727</v>
+        <v>0.01512340991833348</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08232344990212348</v>
+        <v>0.08220015581946841</v>
       </c>
       <c r="D15" t="n">
-        <v>5.958061261487374</v>
+        <v>5.96888668470048</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9087174241671011</v>
+        <v>0.9095220460961023</v>
       </c>
       <c r="F15" t="n">
-        <v>0.006203733927328813</v>
+        <v>0.005848172413875595</v>
       </c>
       <c r="G15" t="n">
-        <v>2.988000036502753</v>
+        <v>4.026602352141461</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5518841150995831</v>
+        <v>0.5463298233149964</v>
       </c>
       <c r="I15" t="n">
-        <v>0.007994289105836241</v>
+        <v>0.008057915691044873</v>
       </c>
       <c r="J15" t="n">
-        <v>3.150865950336741e-07</v>
+        <v>2.394091202271296e-07</v>
       </c>
     </row>
     <row r="16">
@@ -968,31 +968,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01506954466762421</v>
+        <v>0.01406989917347182</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09235393178457293</v>
+        <v>0.0920333901509605</v>
       </c>
       <c r="D16" t="n">
-        <v>6.013065998043065</v>
+        <v>6.035084165016749</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9030983214360216</v>
+        <v>0.9046545019097956</v>
       </c>
       <c r="F16" t="n">
-        <v>0.005774759263407725</v>
+        <v>0.007173480362067818</v>
       </c>
       <c r="G16" t="n">
-        <v>2.302560002321694</v>
+        <v>3.438699177608743</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5936086976566515</v>
+        <v>0.4883496482911376</v>
       </c>
       <c r="I16" t="n">
-        <v>0.008131420413573884</v>
+        <v>0.008292330802009005</v>
       </c>
       <c r="J16" t="n">
-        <v>3.175281205840408e-07</v>
+        <v>3.075262584829131e-07</v>
       </c>
     </row>
     <row r="17">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01554582109956949</v>
+        <v>0.01587206262882567</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1039672546326882</v>
+        <v>0.1039333720448879</v>
       </c>
       <c r="D17" t="n">
-        <v>5.970077908612361</v>
+        <v>5.972334641267975</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8891261658668015</v>
+        <v>0.8893614581876937</v>
       </c>
       <c r="F17" t="n">
-        <v>0.005131741743436506</v>
+        <v>0.004841130282829934</v>
       </c>
       <c r="G17" t="n">
-        <v>1.123415040213831</v>
+        <v>1.298124102251274</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6866713072664223</v>
+        <v>0.6918615483931763</v>
       </c>
       <c r="I17" t="n">
-        <v>0.007892601109534171</v>
+        <v>0.00789825808124588</v>
       </c>
       <c r="J17" t="n">
-        <v>3.165825604066001e-07</v>
+        <v>2.665302877731034e-07</v>
       </c>
     </row>
     <row r="18">
@@ -1036,31 +1036,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01547965434041613</v>
+        <v>0.01243743992153483</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1113976917306421</v>
+        <v>0.1109592183941774</v>
       </c>
       <c r="D18" t="n">
-        <v>6.060837251723245</v>
+        <v>6.085744447187218</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8999447762656717</v>
+        <v>0.9016457220130859</v>
       </c>
       <c r="F18" t="n">
-        <v>0.006181031497540001</v>
+        <v>0.009691598317278461</v>
       </c>
       <c r="G18" t="n">
-        <v>2.020437784935668</v>
+        <v>2.47683075907016</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5907945013076741</v>
+        <v>0.4377142840549199</v>
       </c>
       <c r="I18" t="n">
-        <v>0.008669215439467819</v>
+        <v>0.008847915793567293</v>
       </c>
       <c r="J18" t="n">
-        <v>3.203923931348367e-07</v>
+        <v>3.703921356136292e-07</v>
       </c>
     </row>
     <row r="19">
@@ -1070,31 +1070,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01627076864606059</v>
+        <v>0.01596269299459503</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1168793113828951</v>
+        <v>0.1167086504263948</v>
       </c>
       <c r="D19" t="n">
-        <v>6.057181730230158</v>
+        <v>6.068373480772947</v>
       </c>
       <c r="E19" t="n">
-        <v>0.88853237218131</v>
+        <v>0.8893866428423975</v>
       </c>
       <c r="F19" t="n">
-        <v>0.005192825185798147</v>
+        <v>0.005686916405636089</v>
       </c>
       <c r="G19" t="n">
-        <v>1.111212329424368</v>
+        <v>1.628330328822599</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6924683687090444</v>
+        <v>0.6242719629932054</v>
       </c>
       <c r="I19" t="n">
-        <v>0.008528554876533532</v>
+        <v>0.008572872133183024</v>
       </c>
       <c r="J19" t="n">
-        <v>3.112080428006816e-07</v>
+        <v>2.910632254445128e-07</v>
       </c>
     </row>
     <row r="20">
@@ -1104,31 +1104,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01652369580573842</v>
+        <v>0.0175561336661739</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1356007325538505</v>
+        <v>0.1356510177088353</v>
       </c>
       <c r="D20" t="n">
-        <v>6.052365852427415</v>
+        <v>6.049153778881095</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8851832543589092</v>
+        <v>0.8850037833025678</v>
       </c>
       <c r="F20" t="n">
-        <v>0.005203444565781609</v>
+        <v>0.004120382969149622</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7886698743318667</v>
+        <v>0.7702027997068068</v>
       </c>
       <c r="H20" t="n">
-        <v>0.7232612209482754</v>
+        <v>0.804303238946929</v>
       </c>
       <c r="I20" t="n">
-        <v>0.008560770341994917</v>
+        <v>0.008550585811084753</v>
       </c>
       <c r="J20" t="n">
-        <v>3.142898748749067e-07</v>
+        <v>1.941675763192358e-07</v>
       </c>
     </row>
     <row r="21">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01657622699260607</v>
+        <v>0.01673944045089451</v>
       </c>
       <c r="C21" t="n">
-        <v>0.142346502622403</v>
+        <v>0.1422647863233837</v>
       </c>
       <c r="D21" t="n">
-        <v>6.071310919581767</v>
+        <v>6.075839502848321</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8842545398701108</v>
+        <v>0.8846186879077493</v>
       </c>
       <c r="F21" t="n">
-        <v>0.005710132015880105</v>
+        <v>0.005631123271890628</v>
       </c>
       <c r="G21" t="n">
-        <v>1.102618100293399</v>
+        <v>1.37664746844047</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6715689497123465</v>
+        <v>0.6537988678302638</v>
       </c>
       <c r="I21" t="n">
-        <v>0.008752795767994689</v>
+        <v>0.008771750600311724</v>
       </c>
       <c r="J21" t="n">
-        <v>3.150750410495228e-07</v>
+        <v>2.721326879777519e-07</v>
       </c>
     </row>
     <row r="22">
@@ -1172,31 +1172,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01658596896204026</v>
+        <v>0.00474487139654689</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1501622301678804</v>
+        <v>0.1482506620093408</v>
       </c>
       <c r="D22" t="n">
-        <v>6.173559121654082</v>
+        <v>6.249166966296236</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8976369107765684</v>
+        <v>0.9027629653847224</v>
       </c>
       <c r="F22" t="n">
-        <v>0.006839462838613934</v>
+        <v>0.02056283125998679</v>
       </c>
       <c r="G22" t="n">
-        <v>1.834689225270312</v>
+        <v>2.527283451014982</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5882865769196501</v>
+        <v>0.2600611003235972</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01014332535371561</v>
+        <v>0.01104799459525526</v>
       </c>
       <c r="J22" t="n">
-        <v>3.010398156224537e-07</v>
+        <v>3.354170383820682e-07</v>
       </c>
     </row>
   </sheetData>
